--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>TSID</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Governance Body Suite</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,7 +579,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,7 +590,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +634,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,7 +711,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,7 +744,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +777,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,7 +799,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,7 +854,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,7 +876,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +887,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,7 +898,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,7 +909,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,7 +920,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>TSID</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>PurchaseOrder Suite</t>
   </si>
 </sst>
 </file>
@@ -198,13 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,13 +697,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -727,21 +731,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -749,10 +753,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
@@ -760,10 +764,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -771,10 +775,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>39</v>
@@ -782,10 +786,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>39</v>
@@ -793,10 +797,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
@@ -804,10 +808,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>39</v>
@@ -815,10 +819,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>39</v>
@@ -826,10 +830,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -837,10 +841,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>39</v>
@@ -848,10 +852,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -859,10 +863,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -870,21 +874,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>39</v>
@@ -892,10 +896,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
@@ -903,23 +907,34 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +209,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,8 +517,8 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,14 +697,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -737,26 +738,26 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>39</v>
@@ -764,10 +765,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>39</v>
@@ -775,10 +776,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>39</v>
@@ -786,10 +787,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>39</v>
@@ -797,10 +798,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
@@ -808,10 +809,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>39</v>
@@ -819,10 +820,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>39</v>
@@ -830,10 +831,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>39</v>
@@ -841,10 +842,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>39</v>
@@ -852,10 +853,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -863,10 +864,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -874,10 +875,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
@@ -885,21 +886,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>39</v>
@@ -907,10 +908,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>39</v>
@@ -918,21 +919,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>39</v>

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,14 +720,14 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,14 +742,14 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -517,8 +517,8 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,14 +643,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,14 +720,14 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -160,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -210,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,14 +650,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,14 +694,14 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>TSID</t>
   </si>
@@ -109,41 +109,44 @@
     <t>Dashboard Suite</t>
   </si>
   <si>
+    <t>Relation Suite</t>
+  </si>
+  <si>
+    <t>RC1_11 Suite</t>
+  </si>
+  <si>
+    <t>Child SL Suite</t>
+  </si>
+  <si>
+    <t>Common Report Suite</t>
+  </si>
+  <si>
+    <t>Common Dashboard Suite</t>
+  </si>
+  <si>
+    <t>Common Listing Suite</t>
+  </si>
+  <si>
+    <t>Governance Body Suite</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PurchaseOrder Suite</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Relation Suite</t>
-  </si>
-  <si>
-    <t>RC1_11 Suite</t>
-  </si>
-  <si>
-    <t>Child SL Suite</t>
-  </si>
-  <si>
-    <t>Common Report Suite</t>
-  </si>
-  <si>
-    <t>Common Dashboard Suite</t>
-  </si>
-  <si>
-    <t>Common Listing Suite</t>
-  </si>
-  <si>
-    <t>Governance Body Suite</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PurchaseOrder Suite</t>
+    <t>Calendar Todo Suite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,7 +226,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,18 +602,18 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,40 +646,40 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +690,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,29 +701,29 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,40 +734,40 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +800,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +822,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,7 +833,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,7 +866,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,7 +888,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,62 +899,73 @@
         <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
+      <c r="C34" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -536,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/test/resources/com/sirion/xls/Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
   <si>
     <t>TSID</t>
   </si>
@@ -109,10 +109,7 @@
     <t>Dashboard Suite</t>
   </si>
   <si>
-    <t>Relation Suite</t>
-  </si>
-  <si>
-    <t>RC1_11 Suite</t>
+    <t>Y</t>
   </si>
   <si>
     <t>Child SL Suite</t>
@@ -127,26 +124,29 @@
     <t>Common Listing Suite</t>
   </si>
   <si>
+    <t>Clause Suite</t>
+  </si>
+  <si>
+    <t>Contract Template Suite</t>
+  </si>
+  <si>
+    <t>CDR Suite</t>
+  </si>
+  <si>
+    <t>Vendor Hierarchy Suite</t>
+  </si>
+  <si>
     <t>Governance Body Suite</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PurchaseOrder Suite</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Calendar Todo Suite</t>
+    <t>PO Suite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +158,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,17 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,11 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,80 +552,80 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,84 +636,84 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,238 +724,249 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
+      <c r="C23" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>38</v>
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>38</v>
+      <c r="C40" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
